--- a/GATEWAY/A1#070105000000XX/ASL5/GestioneVaccinazioni/1.0/reporto-checklist.xlsx
+++ b/GATEWAY/A1#070105000000XX/ASL5/GestioneVaccinazioni/1.0/reporto-checklist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\DA INVIARE\GestioneVaccinazioni\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\FSE\DA INVIARE\GestioneVaccinazioni\1.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F780CF6E-6106-48BD-9C67-DB49258C6EB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6086809-426B-4F8E-9046-952BC13AD0E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="331">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -1158,18 +1158,12 @@
     <t>Non e' stato possibile accedere al sistema. Ti preghiamo di riprovare o contattare l'amministratore</t>
   </si>
   <si>
-    <t>Segnalato all'utente e su log di sistema</t>
-  </si>
-  <si>
     <t>Impossibile contattare il sistema. Riprova piu' tardi</t>
   </si>
   <si>
     <t>ERRORE durante la validazione &lt;risposta ricevuta dall'enpoint&gt;</t>
   </si>
   <si>
-    <t>Salvataggio dei documenti prodotti su DB e segnalazione errore</t>
-  </si>
-  <si>
     <t>2023-06-12T12:42:34+00:00</t>
   </si>
   <si>
@@ -1369,6 +1363,18 @@
   </si>
   <si>
     <t>2.16.840.1.113883.2.9.2.120.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.fecfd57b11^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>Segnalato all'utente e su log di sistema. Il documento viene  prodotto e validato internamente. A seguito delle verifiche verra' sottomesso nuovamente dall'operatore in back office</t>
+  </si>
+  <si>
+    <t>Segnalato all'utente e su log di sistema. Il documento viene  prodotto e validato internamente. A seguito delle verifiche verra' automaticamente sottomesso dal sistema</t>
+  </si>
+  <si>
+    <t>Salvataggio dei documenti prodotti su DB e segnalazione errore. A seguito delle verifiche l'operatore in back office puo' correggere in autonomia l'errore oppure previa comunicazione con l'utente che ha generato il documento originalmente e ri sottomettere il documento al FSE</t>
+  </si>
+  <si>
+    <t>Salvataggio dei documenti prodotti su DB e segnalazione errore. Corretto l'errore l'utente puo' richiedere nuovamente la validazione del documento tramite SW e di conseguenza la sottomissione automatica al FSE</t>
   </si>
 </sst>
 </file>
@@ -1800,6 +1806,9 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1821,9 +1830,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4284,10 +4290,10 @@
   <dimension ref="A1:T384"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B24" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="L44" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="D38" sqref="D38"/>
+      <selection pane="bottomRight" activeCell="P49" sqref="P49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -4325,12 +4331,12 @@
       <c r="T1" s="15"/>
     </row>
     <row r="2" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="38"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="39"/>
       <c r="F2" s="12"/>
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
@@ -4348,14 +4354,14 @@
       <c r="T2" s="15"/>
     </row>
     <row r="3" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="41"/>
-      <c r="C3" s="46" t="s">
+      <c r="B3" s="42"/>
+      <c r="C3" s="47" t="s">
         <v>197</v>
       </c>
-      <c r="D3" s="38"/>
+      <c r="D3" s="39"/>
       <c r="F3" s="12"/>
       <c r="G3" s="12"/>
       <c r="H3" s="12"/>
@@ -4373,12 +4379,12 @@
       <c r="T3" s="15"/>
     </row>
     <row r="4" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A4" s="42"/>
-      <c r="B4" s="43"/>
-      <c r="C4" s="46" t="s">
+      <c r="A4" s="43"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="47" t="s">
         <v>198</v>
       </c>
-      <c r="D4" s="38"/>
+      <c r="D4" s="39"/>
       <c r="E4" s="4"/>
       <c r="F4" s="12"/>
       <c r="G4" s="12"/>
@@ -4397,12 +4403,12 @@
       <c r="T4" s="15"/>
     </row>
     <row r="5" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A5" s="44"/>
-      <c r="B5" s="45"/>
-      <c r="C5" s="46" t="s">
+      <c r="A5" s="45"/>
+      <c r="B5" s="46"/>
+      <c r="C5" s="47" t="s">
         <v>199</v>
       </c>
-      <c r="D5" s="38"/>
+      <c r="D5" s="39"/>
       <c r="F5" s="12"/>
       <c r="G5" s="12"/>
       <c r="H5" s="12"/>
@@ -4420,8 +4426,8 @@
       <c r="T5" s="15"/>
     </row>
     <row r="6" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A6" s="35"/>
-      <c r="B6" s="36"/>
+      <c r="A6" s="36"/>
+      <c r="B6" s="37"/>
       <c r="C6" s="16"/>
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
@@ -4767,7 +4773,7 @@
         <v>80</v>
       </c>
       <c r="P14" s="33" t="s">
-        <v>258</v>
+        <v>327</v>
       </c>
       <c r="Q14" s="25"/>
       <c r="R14" s="26"/>
@@ -4821,7 +4827,7 @@
         <v>80</v>
       </c>
       <c r="P15" s="33" t="s">
-        <v>258</v>
+        <v>327</v>
       </c>
       <c r="Q15" s="25"/>
       <c r="R15" s="26"/>
@@ -4869,13 +4875,13 @@
         <v>80</v>
       </c>
       <c r="N16" s="33" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="O16" s="33" t="s">
         <v>80</v>
       </c>
       <c r="P16" s="33" t="s">
-        <v>258</v>
+        <v>328</v>
       </c>
       <c r="Q16" s="25"/>
       <c r="R16" s="26" t="s">
@@ -4925,13 +4931,13 @@
         <v>196</v>
       </c>
       <c r="N17" s="33" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="O17" s="33" t="s">
         <v>80</v>
       </c>
       <c r="P17" s="33" t="s">
-        <v>261</v>
+        <v>329</v>
       </c>
       <c r="Q17" s="25"/>
       <c r="R17" s="26"/>
@@ -4979,13 +4985,13 @@
         <v>196</v>
       </c>
       <c r="N18" s="33" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="O18" s="33" t="s">
         <v>80</v>
       </c>
       <c r="P18" s="33" t="s">
-        <v>261</v>
+        <v>330</v>
       </c>
       <c r="Q18" s="25"/>
       <c r="R18" s="26"/>
@@ -5033,13 +5039,13 @@
         <v>196</v>
       </c>
       <c r="N19" s="33" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="O19" s="33" t="s">
         <v>80</v>
       </c>
       <c r="P19" s="33" t="s">
-        <v>261</v>
+        <v>329</v>
       </c>
       <c r="Q19" s="25"/>
       <c r="R19" s="26"/>
@@ -5087,13 +5093,13 @@
         <v>196</v>
       </c>
       <c r="N20" s="33" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="O20" s="33" t="s">
         <v>80</v>
       </c>
       <c r="P20" s="33" t="s">
-        <v>261</v>
+        <v>330</v>
       </c>
       <c r="Q20" s="25"/>
       <c r="R20" s="26"/>
@@ -5141,13 +5147,13 @@
         <v>196</v>
       </c>
       <c r="N21" s="33" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="O21" s="33" t="s">
         <v>80</v>
       </c>
       <c r="P21" s="33" t="s">
-        <v>261</v>
+        <v>330</v>
       </c>
       <c r="Q21" s="25"/>
       <c r="R21" s="26"/>
@@ -5195,13 +5201,13 @@
         <v>196</v>
       </c>
       <c r="N22" s="33" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="O22" s="33" t="s">
         <v>80</v>
       </c>
       <c r="P22" s="33" t="s">
-        <v>261</v>
+        <v>330</v>
       </c>
       <c r="Q22" s="25"/>
       <c r="R22" s="26"/>
@@ -5249,13 +5255,13 @@
         <v>196</v>
       </c>
       <c r="N23" s="33" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="O23" s="33" t="s">
         <v>80</v>
       </c>
       <c r="P23" s="33" t="s">
-        <v>261</v>
+        <v>330</v>
       </c>
       <c r="Q23" s="25"/>
       <c r="R23" s="26"/>
@@ -5303,13 +5309,13 @@
         <v>196</v>
       </c>
       <c r="N24" s="33" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="O24" s="33" t="s">
         <v>80</v>
       </c>
       <c r="P24" s="33" t="s">
-        <v>261</v>
+        <v>330</v>
       </c>
       <c r="Q24" s="25"/>
       <c r="R24" s="26"/>
@@ -5357,13 +5363,13 @@
         <v>196</v>
       </c>
       <c r="N25" s="33" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="O25" s="33" t="s">
         <v>80</v>
       </c>
       <c r="P25" s="33" t="s">
-        <v>261</v>
+        <v>330</v>
       </c>
       <c r="Q25" s="25"/>
       <c r="R25" s="26"/>
@@ -5411,13 +5417,13 @@
         <v>196</v>
       </c>
       <c r="N26" s="33" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="O26" s="33" t="s">
         <v>80</v>
       </c>
       <c r="P26" s="33" t="s">
-        <v>261</v>
+        <v>330</v>
       </c>
       <c r="Q26" s="25"/>
       <c r="R26" s="26"/>
@@ -5465,13 +5471,13 @@
         <v>196</v>
       </c>
       <c r="N27" s="33" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="O27" s="33" t="s">
         <v>80</v>
       </c>
       <c r="P27" s="33" t="s">
-        <v>261</v>
+        <v>330</v>
       </c>
       <c r="Q27" s="25"/>
       <c r="R27" s="26"/>
@@ -5519,13 +5525,13 @@
         <v>196</v>
       </c>
       <c r="N28" s="33" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="O28" s="33" t="s">
         <v>80</v>
       </c>
       <c r="P28" s="33" t="s">
-        <v>261</v>
+        <v>330</v>
       </c>
       <c r="Q28" s="25"/>
       <c r="R28" s="26"/>
@@ -5573,13 +5579,13 @@
         <v>196</v>
       </c>
       <c r="N29" s="33" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="O29" s="33" t="s">
         <v>80</v>
       </c>
       <c r="P29" s="33" t="s">
-        <v>261</v>
+        <v>330</v>
       </c>
       <c r="Q29" s="25"/>
       <c r="R29" s="26"/>
@@ -5607,14 +5613,14 @@
       <c r="F30" s="23">
         <v>45092</v>
       </c>
-      <c r="G30" s="47" t="s">
+      <c r="G30" s="35" t="s">
+        <v>324</v>
+      </c>
+      <c r="H30" s="35" t="s">
+        <v>325</v>
+      </c>
+      <c r="I30" s="35" t="s">
         <v>326</v>
-      </c>
-      <c r="H30" s="47" t="s">
-        <v>327</v>
-      </c>
-      <c r="I30" s="47" t="s">
-        <v>328</v>
       </c>
       <c r="J30" s="25" t="s">
         <v>80</v>
@@ -5654,13 +5660,13 @@
         <v>45089</v>
       </c>
       <c r="G31" s="24" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="H31" s="24" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="I31" s="24" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="J31" s="25" t="s">
         <v>80</v>
@@ -5700,13 +5706,13 @@
         <v>45089</v>
       </c>
       <c r="G32" s="24" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="H32" s="24" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="I32" s="24" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="J32" s="25" t="s">
         <v>80</v>
@@ -5746,13 +5752,13 @@
         <v>45089</v>
       </c>
       <c r="G33" s="24" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H33" s="24" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="I33" s="24" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="J33" s="25" t="s">
         <v>80</v>
@@ -5792,13 +5798,13 @@
         <v>45089</v>
       </c>
       <c r="G34" s="24" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="H34" s="24" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="I34" s="24" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="J34" s="25" t="s">
         <v>80</v>
@@ -5838,10 +5844,10 @@
         <v>45089</v>
       </c>
       <c r="G35" s="24" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="H35" s="24" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="I35" s="24" t="s">
         <v>242</v>
@@ -5863,7 +5869,7 @@
         <v>80</v>
       </c>
       <c r="P35" s="33" t="s">
-        <v>258</v>
+        <v>327</v>
       </c>
       <c r="Q35" s="25"/>
       <c r="R35" s="26"/>
@@ -5892,10 +5898,10 @@
         <v>45089</v>
       </c>
       <c r="G36" s="24" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="H36" s="24" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="I36" s="24" t="s">
         <v>242</v>
@@ -5917,7 +5923,7 @@
         <v>80</v>
       </c>
       <c r="P36" s="33" t="s">
-        <v>258</v>
+        <v>327</v>
       </c>
       <c r="Q36" s="25"/>
       <c r="R36" s="26"/>
@@ -5965,13 +5971,13 @@
         <v>80</v>
       </c>
       <c r="N37" s="33" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="O37" s="33" t="s">
         <v>80</v>
       </c>
       <c r="P37" s="33" t="s">
-        <v>258</v>
+        <v>328</v>
       </c>
       <c r="Q37" s="25"/>
       <c r="R37" s="26" t="s">
@@ -6002,13 +6008,13 @@
         <v>45089</v>
       </c>
       <c r="G38" s="24" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="H38" s="24" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="I38" s="24" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="J38" s="25" t="s">
         <v>80</v>
@@ -6021,13 +6027,13 @@
         <v>196</v>
       </c>
       <c r="N38" s="33" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="O38" s="33" t="s">
         <v>80</v>
       </c>
       <c r="P38" s="33" t="s">
-        <v>261</v>
+        <v>329</v>
       </c>
       <c r="Q38" s="25"/>
       <c r="R38" s="26"/>
@@ -6056,13 +6062,13 @@
         <v>45089</v>
       </c>
       <c r="G39" s="24" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H39" s="24" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="I39" s="24" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="J39" s="25" t="s">
         <v>80</v>
@@ -6075,13 +6081,13 @@
         <v>196</v>
       </c>
       <c r="N39" s="34" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="O39" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="P39" s="34" t="s">
-        <v>261</v>
+      <c r="P39" s="33" t="s">
+        <v>330</v>
       </c>
       <c r="Q39" s="25"/>
       <c r="R39" s="26"/>
@@ -6110,13 +6116,13 @@
         <v>45089</v>
       </c>
       <c r="G40" s="24" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H40" s="24" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="I40" s="24" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="J40" s="25" t="s">
         <v>80</v>
@@ -6129,13 +6135,13 @@
         <v>196</v>
       </c>
       <c r="N40" s="34" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="O40" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="P40" s="34" t="s">
-        <v>261</v>
+      <c r="P40" s="33" t="s">
+        <v>329</v>
       </c>
       <c r="Q40" s="25"/>
       <c r="R40" s="26"/>
@@ -6164,13 +6170,13 @@
         <v>45089</v>
       </c>
       <c r="G41" s="24" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="H41" s="24" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="I41" s="24" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="J41" s="25" t="s">
         <v>80</v>
@@ -6183,13 +6189,13 @@
         <v>196</v>
       </c>
       <c r="N41" s="34" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="O41" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="P41" s="34" t="s">
-        <v>261</v>
+      <c r="P41" s="33" t="s">
+        <v>330</v>
       </c>
       <c r="Q41" s="25"/>
       <c r="R41" s="26"/>
@@ -6218,13 +6224,13 @@
         <v>45089</v>
       </c>
       <c r="G42" s="24" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="H42" s="24" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="I42" s="24" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="J42" s="25" t="s">
         <v>80</v>
@@ -6237,13 +6243,13 @@
         <v>196</v>
       </c>
       <c r="N42" s="34" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="O42" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="P42" s="34" t="s">
-        <v>261</v>
+      <c r="P42" s="33" t="s">
+        <v>330</v>
       </c>
       <c r="Q42" s="25"/>
       <c r="R42" s="26"/>
@@ -6272,13 +6278,13 @@
         <v>45089</v>
       </c>
       <c r="G43" s="24" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="H43" s="24" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="I43" s="24" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="J43" s="25" t="s">
         <v>80</v>
@@ -6291,13 +6297,13 @@
         <v>196</v>
       </c>
       <c r="N43" s="34" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="O43" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="P43" s="34" t="s">
-        <v>261</v>
+      <c r="P43" s="33" t="s">
+        <v>330</v>
       </c>
       <c r="Q43" s="25"/>
       <c r="R43" s="26"/>
@@ -6326,13 +6332,13 @@
         <v>45089</v>
       </c>
       <c r="G44" s="24" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="H44" s="24" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="I44" s="24" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="J44" s="25" t="s">
         <v>80</v>
@@ -6345,13 +6351,13 @@
         <v>196</v>
       </c>
       <c r="N44" s="34" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="O44" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="P44" s="34" t="s">
-        <v>261</v>
+      <c r="P44" s="33" t="s">
+        <v>330</v>
       </c>
       <c r="Q44" s="25"/>
       <c r="R44" s="26"/>
@@ -6380,13 +6386,13 @@
         <v>45089</v>
       </c>
       <c r="G45" s="24" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="H45" s="24" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="I45" s="24" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="J45" s="25" t="s">
         <v>80</v>
@@ -6399,13 +6405,13 @@
         <v>196</v>
       </c>
       <c r="N45" s="34" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="O45" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="P45" s="34" t="s">
-        <v>261</v>
+      <c r="P45" s="33" t="s">
+        <v>330</v>
       </c>
       <c r="Q45" s="25"/>
       <c r="R45" s="26"/>
@@ -6434,13 +6440,13 @@
         <v>45089</v>
       </c>
       <c r="G46" s="24" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="H46" s="24" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="I46" s="24" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="J46" s="25" t="s">
         <v>80</v>
@@ -6453,13 +6459,13 @@
         <v>196</v>
       </c>
       <c r="N46" s="34" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="O46" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="P46" s="34" t="s">
-        <v>261</v>
+      <c r="P46" s="33" t="s">
+        <v>330</v>
       </c>
       <c r="Q46" s="25"/>
       <c r="R46" s="26"/>
@@ -6488,13 +6494,13 @@
         <v>45089</v>
       </c>
       <c r="G47" s="24" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="H47" s="24" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="I47" s="24" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="J47" s="25" t="s">
         <v>80</v>
@@ -6507,13 +6513,13 @@
         <v>196</v>
       </c>
       <c r="N47" s="34" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="O47" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="P47" s="34" t="s">
-        <v>261</v>
+      <c r="P47" s="33" t="s">
+        <v>330</v>
       </c>
       <c r="Q47" s="25"/>
       <c r="R47" s="26"/>
@@ -6542,13 +6548,13 @@
         <v>45089</v>
       </c>
       <c r="G48" s="24" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="H48" s="24" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="I48" s="24" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="J48" s="25" t="s">
         <v>80</v>
@@ -6561,13 +6567,13 @@
         <v>196</v>
       </c>
       <c r="N48" s="34" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="O48" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="P48" s="34" t="s">
-        <v>261</v>
+      <c r="P48" s="33" t="s">
+        <v>330</v>
       </c>
       <c r="Q48" s="25"/>
       <c r="R48" s="26"/>
@@ -6596,13 +6602,13 @@
         <v>45089</v>
       </c>
       <c r="G49" s="24" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="H49" s="24" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="I49" s="24" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="J49" s="25" t="s">
         <v>80</v>
@@ -6615,13 +6621,13 @@
         <v>196</v>
       </c>
       <c r="N49" s="34" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="O49" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="P49" s="34" t="s">
-        <v>261</v>
+      <c r="P49" s="33" t="s">
+        <v>330</v>
       </c>
       <c r="Q49" s="25"/>
       <c r="R49" s="26"/>
@@ -6650,13 +6656,13 @@
         <v>45089</v>
       </c>
       <c r="G50" s="24" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="H50" s="24" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="I50" s="24" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="J50" s="25" t="s">
         <v>80</v>
@@ -6669,13 +6675,13 @@
         <v>196</v>
       </c>
       <c r="N50" s="34" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="O50" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="P50" s="34" t="s">
-        <v>261</v>
+      <c r="P50" s="33" t="s">
+        <v>330</v>
       </c>
       <c r="Q50" s="25"/>
       <c r="R50" s="26"/>
@@ -6704,13 +6710,13 @@
         <v>45089</v>
       </c>
       <c r="G51" s="24" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="H51" s="24" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="I51" s="24" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="J51" s="25" t="s">
         <v>80</v>
@@ -6723,13 +6729,13 @@
         <v>196</v>
       </c>
       <c r="N51" s="34" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="O51" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="P51" s="34" t="s">
-        <v>261</v>
+      <c r="P51" s="33" t="s">
+        <v>330</v>
       </c>
       <c r="Q51" s="25"/>
       <c r="R51" s="26"/>
@@ -6758,13 +6764,13 @@
         <v>45089</v>
       </c>
       <c r="G52" s="24" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="H52" s="24" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="I52" s="24" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="J52" s="25" t="s">
         <v>80</v>
@@ -6777,13 +6783,13 @@
         <v>196</v>
       </c>
       <c r="N52" s="34" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="O52" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="P52" s="34" t="s">
-        <v>261</v>
+      <c r="P52" s="33" t="s">
+        <v>330</v>
       </c>
       <c r="Q52" s="25"/>
       <c r="R52" s="26"/>
@@ -6811,14 +6817,14 @@
       <c r="F53" s="23">
         <v>45092</v>
       </c>
-      <c r="G53" s="47" t="s">
+      <c r="G53" s="35" t="s">
+        <v>321</v>
+      </c>
+      <c r="H53" s="35" t="s">
+        <v>322</v>
+      </c>
+      <c r="I53" s="35" t="s">
         <v>323</v>
-      </c>
-      <c r="H53" s="47" t="s">
-        <v>324</v>
-      </c>
-      <c r="I53" s="47" t="s">
-        <v>325</v>
       </c>
       <c r="J53" s="25" t="s">
         <v>80</v>
